--- a/data/trans_orig/Q5407-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Clase-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6760</v>
+        <v>6552</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07305315033173214</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2275523852611387</v>
+        <v>0.2205486334346294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7595</v>
+        <v>7008</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0242511798492832</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08487215599336645</v>
+        <v>0.0783082552124873</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>4168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10223</v>
+        <v>9738</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06971693096460296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01582181316749124</v>
+        <v>0.01597460961675512</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.171002037280883</v>
+        <v>0.1628814161203489</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5336</v>
+        <v>5362</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0578900742304418</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1795997960963143</v>
+        <v>0.1804814087252935</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -849,19 +849,19 @@
         <v>5888</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2393</v>
+        <v>1882</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12019</v>
+        <v>12681</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06579081376897992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02673524853260723</v>
+        <v>0.02102695838841269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1343059500986716</v>
+        <v>0.1416998901181426</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>55616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49561</v>
+        <v>50046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58838</v>
+        <v>58829</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.930283069035397</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8289979627191171</v>
+        <v>0.8371185838796514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9841781868325088</v>
+        <v>0.9840253903832449</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -899,19 +899,19 @@
         <v>25819</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20545</v>
+        <v>19868</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28802</v>
+        <v>28462</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8690567754378261</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6915346822433022</v>
+        <v>0.6687515224118147</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9694715826356712</v>
+        <v>0.9580397882127252</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>76</v>
@@ -920,19 +920,19 @@
         <v>81435</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74138</v>
+        <v>74737</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85639</v>
+        <v>85978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9099580063817369</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8284206657666987</v>
+        <v>0.8351211277603661</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9569359004217598</v>
+        <v>0.9607208888079873</v>
       </c>
     </row>
     <row r="7">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4317</v>
+        <v>4618</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01610677617254181</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08492998340445838</v>
+        <v>0.09085876822101406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4380</v>
+        <v>3498</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01229000169088415</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06574891234989028</v>
+        <v>0.05251383275777588</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1087,7 @@
         <v>4526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>987</v>
+        <v>1018</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>10823</v>
@@ -1096,10 +1096,10 @@
         <v>0.08904529861692974</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01941950344230415</v>
+        <v>0.02002562515941237</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2129218435755839</v>
+        <v>0.2129226501549992</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6604</v>
+        <v>6515</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1470752139368248</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4183643061111</v>
+        <v>0.4126921103810633</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1129,19 +1129,19 @@
         <v>6848</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2960</v>
+        <v>2600</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14044</v>
+        <v>13190</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1027964737492516</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04442995328129759</v>
+        <v>0.03902854140888776</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2108135226232802</v>
+        <v>0.1979944853539697</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>45485</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39021</v>
+        <v>39327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49021</v>
+        <v>48939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8948479252105285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7676706058134519</v>
+        <v>0.773704574330911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9644076420125252</v>
+        <v>0.9627905004281001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1179,7 +1179,7 @@
         <v>13464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9182</v>
+        <v>9271</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>15786</v>
@@ -1188,7 +1188,7 @@
         <v>0.8529247860631752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5816356938888999</v>
+        <v>0.5873078896189364</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1200,19 +1200,19 @@
         <v>58949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52022</v>
+        <v>52790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62950</v>
+        <v>63432</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8849135245598643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.780922094460466</v>
+        <v>0.7924577538100542</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9449743687949977</v>
+        <v>0.9522061282470847</v>
       </c>
     </row>
     <row r="11">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6306</v>
+        <v>6457</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0246522216078816</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08788810119339185</v>
+        <v>0.0899947518127604</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1325,19 +1325,19 @@
         <v>3344</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1061</v>
+        <v>1033</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8179</v>
+        <v>8564</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1377660191084037</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04370443261296889</v>
+        <v>0.04253951101895909</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3369450426480287</v>
+        <v>0.3528046204593233</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1346,19 +1346,19 @@
         <v>5113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1804</v>
+        <v>1888</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11688</v>
+        <v>11443</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05324627752971777</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01878677014100706</v>
+        <v>0.01966080379239281</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.121714621345066</v>
+        <v>0.1191568091926919</v>
       </c>
     </row>
     <row r="13">
@@ -1375,19 +1375,19 @@
         <v>6084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2557</v>
+        <v>2599</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11627</v>
+        <v>11564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08479234130557597</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03563460640306033</v>
+        <v>0.03622682708313899</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1620376858628988</v>
+        <v>0.161156979910728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6867</v>
+        <v>5633</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04649146260920933</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2828782112641334</v>
+        <v>0.2320647461716762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1417,19 +1417,19 @@
         <v>7213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2796</v>
+        <v>2883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12932</v>
+        <v>12706</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07511025572893076</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0291182244280892</v>
+        <v>0.03001977224659743</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1346636214656271</v>
+        <v>0.1323079835271446</v>
       </c>
     </row>
     <row r="14">
@@ -1446,19 +1446,19 @@
         <v>63901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58651</v>
+        <v>57406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68259</v>
+        <v>67527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8905554370865424</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8173857730946029</v>
+        <v>0.8000412147201272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.951293336225675</v>
+        <v>0.9410895403180196</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1467,19 +1467,19 @@
         <v>19802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14391</v>
+        <v>14492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23111</v>
+        <v>23114</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.815742518282387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.59282227582212</v>
+        <v>0.596996318229492</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9520657265317635</v>
+        <v>0.9521822494477724</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>88</v>
@@ -1488,19 +1488,19 @@
         <v>83704</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75742</v>
+        <v>76405</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>89022</v>
+        <v>88976</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8716434667413514</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7887324636250865</v>
+        <v>0.7956413193375856</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.927023570313858</v>
+        <v>0.9265485195360944</v>
       </c>
     </row>
     <row r="15">
@@ -1592,19 +1592,19 @@
         <v>5504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1886</v>
+        <v>1911</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11078</v>
+        <v>11246</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02116180103420752</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007249967182834176</v>
+        <v>0.007349589979911826</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04259566751795966</v>
+        <v>0.04324090847657446</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1613,19 +1613,19 @@
         <v>3064</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>235</v>
+        <v>841</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7833</v>
+        <v>7492</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03572650248483426</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002735466143955013</v>
+        <v>0.009801754947528826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0913425973972305</v>
+        <v>0.08736811940468572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1634,19 +1634,19 @@
         <v>8567</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3993</v>
+        <v>4673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16192</v>
+        <v>16162</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02477332928037473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01154738967985994</v>
+        <v>0.01351305823585068</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04682200534802886</v>
+        <v>0.04673416689280353</v>
       </c>
     </row>
     <row r="17">
@@ -1663,19 +1663,19 @@
         <v>21166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13949</v>
+        <v>13451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31204</v>
+        <v>30592</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0813855349417326</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0536344015630278</v>
+        <v>0.05172116425068101</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1199813012445562</v>
+        <v>0.1176285324222238</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1684,19 +1684,19 @@
         <v>6851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3156</v>
+        <v>2440</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14002</v>
+        <v>13629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0798977671376884</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0368050165482461</v>
+        <v>0.02845412240037358</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1632867747776364</v>
+        <v>0.1589364395371468</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -1705,19 +1705,19 @@
         <v>28017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18904</v>
+        <v>19897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38155</v>
+        <v>39244</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08101662141018798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05466280618391036</v>
+        <v>0.0575350354333317</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1103318427477792</v>
+        <v>0.1134793734184985</v>
       </c>
     </row>
     <row r="18">
@@ -1734,19 +1734,19 @@
         <v>233402</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>223316</v>
+        <v>222260</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>241426</v>
+        <v>241613</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8974526640240599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.858669005903775</v>
+        <v>0.854611043336267</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9283056139369679</v>
+        <v>0.9290216505044332</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -1755,19 +1755,19 @@
         <v>75837</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>67853</v>
+        <v>67386</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80472</v>
+        <v>80492</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8843757303774773</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7912648022995659</v>
+        <v>0.7858257949904044</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9384237682432177</v>
+        <v>0.9386604027256693</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>327</v>
@@ -1776,19 +1776,19 @@
         <v>309239</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>297550</v>
+        <v>297014</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>319067</v>
+        <v>319332</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8942100493094373</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.860409756593556</v>
+        <v>0.8588589899174555</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9226290228727037</v>
+        <v>0.9233932283418465</v>
       </c>
     </row>
     <row r="19">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7259</v>
+        <v>6220</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03730273779990256</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1308834402673708</v>
+        <v>0.1121377297834272</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1901,19 +1901,19 @@
         <v>9298</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4506</v>
+        <v>4438</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16244</v>
+        <v>17502</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09660180191298051</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04681457275014562</v>
+        <v>0.04610471565259304</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1687690733079186</v>
+        <v>0.1818391287241912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1922,19 +1922,19 @@
         <v>11367</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5564</v>
+        <v>5636</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19846</v>
+        <v>19603</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07492274519788981</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03667670734094045</v>
+        <v>0.03714976626660114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1308116419969193</v>
+        <v>0.1292113315509393</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>4471</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1743</v>
+        <v>1648</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9239</v>
+        <v>9063</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08061024834792301</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03142865483080481</v>
+        <v>0.02970906556582118</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1665755850249314</v>
+        <v>0.1633988940464313</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1972,19 +1972,19 @@
         <v>16085</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9189</v>
+        <v>9554</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25087</v>
+        <v>24770</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1671210708251734</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09547166159426049</v>
+        <v>0.09926231014577969</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2606484785484781</v>
+        <v>0.2573470882678446</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -1993,19 +1993,19 @@
         <v>20556</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12997</v>
+        <v>13047</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30400</v>
+        <v>30246</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1354937078135566</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08566749906151432</v>
+        <v>0.08599781582310732</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2003748999544617</v>
+        <v>0.1993609378364852</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>48925</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42653</v>
+        <v>43368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52548</v>
+        <v>52560</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8820870138521745</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7690031835738829</v>
+        <v>0.7818936408911935</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9474075294787196</v>
+        <v>0.9476293049898192</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2043,19 +2043,19 @@
         <v>70867</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60631</v>
+        <v>61080</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78503</v>
+        <v>79133</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.736277127261846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6299348750591374</v>
+        <v>0.6346000986972536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8156153284382246</v>
+        <v>0.8221603459557056</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -2064,19 +2064,19 @@
         <v>119792</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>108114</v>
+        <v>108719</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129440</v>
+        <v>129474</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7895835469885536</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7126119462510705</v>
+        <v>0.7165997911310683</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8531789858894259</v>
+        <v>0.8534003346566092</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>20504</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13044</v>
+        <v>12691</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31446</v>
+        <v>30563</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04823682327129216</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03068590182823438</v>
+        <v>0.02985580337208559</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07397842825738357</v>
+        <v>0.07190027246703484</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2202,19 +2202,19 @@
         <v>20504</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12553</v>
+        <v>11886</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30487</v>
+        <v>31074</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04782670781906358</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02928115911002922</v>
+        <v>0.02772454704754938</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0711136765680226</v>
+        <v>0.0724821186008774</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>52137</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40131</v>
+        <v>39757</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68962</v>
+        <v>68907</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1226561933580834</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09440999157576313</v>
+        <v>0.09353062176092</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1622378129338473</v>
+        <v>0.1621067144308661</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -2265,19 +2265,19 @@
         <v>52137</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39063</v>
+        <v>39560</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66225</v>
+        <v>68008</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1216133551942853</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09111568692513997</v>
+        <v>0.09227531644912985</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1544740839123307</v>
+        <v>0.1586312986227912</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>352429</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>333406</v>
+        <v>334796</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>366410</v>
+        <v>368075</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8291069833706245</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7843545880814945</v>
+        <v>0.7876251396612244</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8619997744494259</v>
+        <v>0.8659163017858422</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>349</v>
@@ -2328,19 +2328,19 @@
         <v>356074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>340001</v>
+        <v>336998</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>371701</v>
+        <v>371204</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8305599369866511</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7930703204251369</v>
+        <v>0.7860643752901459</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.867012831684735</v>
+        <v>0.8658535240181799</v>
       </c>
     </row>
     <row r="27">
@@ -2432,19 +2432,19 @@
         <v>10160</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5353</v>
+        <v>5281</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17252</v>
+        <v>17032</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02025759694000507</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01067211215588241</v>
+        <v>0.01052895507277491</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03439678581495127</v>
+        <v>0.03395868452458134</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -2453,19 +2453,19 @@
         <v>38380</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26706</v>
+        <v>27971</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>52318</v>
+        <v>52113</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05670481792306725</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03945668250344008</v>
+        <v>0.04132545520343352</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07729658119088308</v>
+        <v>0.07699462393335799</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>47</v>
@@ -2474,19 +2474,19 @@
         <v>48540</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>37249</v>
+        <v>35253</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>64394</v>
+        <v>63621</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04119204907442865</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0316095982549081</v>
+        <v>0.02991580322292915</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0546451949986948</v>
+        <v>0.05398934159065141</v>
       </c>
     </row>
     <row r="29">
@@ -2503,19 +2503,19 @@
         <v>40416</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29342</v>
+        <v>30168</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>53273</v>
+        <v>53867</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08058113346620098</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05850303231251072</v>
+        <v>0.06014873427169742</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1062160858607843</v>
+        <v>0.1074001843100218</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>73</v>
@@ -2524,19 +2524,19 @@
         <v>80244</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>64206</v>
+        <v>64208</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>97957</v>
+        <v>97670</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1185571054138482</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09486148931228736</v>
+        <v>0.09486397176054281</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1447271581509527</v>
+        <v>0.1443024763747686</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>116</v>
@@ -2545,19 +2545,19 @@
         <v>120660</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>99825</v>
+        <v>102056</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>142447</v>
+        <v>141683</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1023936652739262</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08471263922959402</v>
+        <v>0.08660623434622122</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1208823129151426</v>
+        <v>0.1202338752581595</v>
       </c>
     </row>
     <row r="30">
@@ -2574,19 +2574,19 @@
         <v>450975</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>435755</v>
+        <v>435875</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>462353</v>
+        <v>461833</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8991612695937939</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8688143271744665</v>
+        <v>0.8690545279071443</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9218471825692192</v>
+        <v>0.9208099000165367</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>552</v>
@@ -2595,19 +2595,19 @@
         <v>558217</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>536716</v>
+        <v>535947</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>577710</v>
+        <v>577143</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8247380766630845</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7929703169865571</v>
+        <v>0.7918341290314475</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.853537008522698</v>
+        <v>0.8526993569999169</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1020</v>
@@ -2616,19 +2616,19 @@
         <v>1009193</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>985707</v>
+        <v>984509</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1031091</v>
+        <v>1031098</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8564142856516451</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8364843814210161</v>
+        <v>0.8354676625149835</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8749971400546457</v>
+        <v>0.8750038981939149</v>
       </c>
     </row>
     <row r="31">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8636</v>
+        <v>9852</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04990091422280988</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1966300423106769</v>
+        <v>0.2243267469192112</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10882</v>
+        <v>11479</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04755461593645426</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1572438163210613</v>
+        <v>0.1658672954967265</v>
       </c>
     </row>
     <row r="5">
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6855</v>
+        <v>6899</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04752485571963007</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1560975578914667</v>
+        <v>0.1570871130529841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5286</v>
+        <v>5450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04162510573438099</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2090224833033834</v>
+        <v>0.2154903593768627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -3075,19 +3075,19 @@
         <v>3140</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>983</v>
+        <v>1001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8764</v>
+        <v>8291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0453690087122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01420703090975041</v>
+        <v>0.01445698414088182</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1266385839865779</v>
+        <v>0.1198030239907271</v>
       </c>
     </row>
     <row r="6">
@@ -3104,19 +3104,19 @@
         <v>39639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33247</v>
+        <v>31987</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42878</v>
+        <v>42883</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9025742300575601</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.757024331288457</v>
+        <v>0.7283362367015767</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9763114809824026</v>
+        <v>0.9764286509913767</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -3125,7 +3125,7 @@
         <v>23137</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -3134,7 +3134,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3146,19 +3146,19 @@
         <v>62776</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55757</v>
+        <v>54999</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67127</v>
+        <v>67101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9070763753513458</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8056492874023057</v>
+        <v>0.7946975349903339</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9699387832803338</v>
+        <v>0.9695625204139116</v>
       </c>
     </row>
     <row r="7">
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5741</v>
+        <v>5749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01907638123193203</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09468977294278548</v>
+        <v>0.09482794677000815</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3271,19 +3271,19 @@
         <v>3322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.175742536619114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -3292,19 +3292,19 @@
         <v>4478</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1145</v>
+        <v>1093</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10816</v>
+        <v>10015</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05630998168072178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01439521326797162</v>
+        <v>0.01374789075643949</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1360033049493975</v>
+        <v>0.1259235199476929</v>
       </c>
     </row>
     <row r="9">
@@ -3321,19 +3321,19 @@
         <v>5410</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1144</v>
+        <v>1988</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12782</v>
+        <v>13388</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08923054696323404</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01886992505749847</v>
+        <v>0.03278264362365114</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2108257866015773</v>
+        <v>0.2208136333732749</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3342,19 +3342,19 @@
         <v>2853</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7019</v>
+        <v>7209</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1509452500400612</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04567347107033713</v>
+        <v>0.04693408930702798</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.371329160770463</v>
+        <v>0.3813639060470175</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -3363,19 +3363,19 @@
         <v>8263</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3205</v>
+        <v>3928</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16373</v>
+        <v>17652</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1038977901243328</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04029713958812078</v>
+        <v>0.04938547115222088</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2058708991625073</v>
+        <v>0.2219537512363809</v>
       </c>
     </row>
     <row r="10">
@@ -3392,19 +3392,19 @@
         <v>54063</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46894</v>
+        <v>45742</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58486</v>
+        <v>58413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8916930718048339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7734395835483374</v>
+        <v>0.7544396682187544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9646342358973481</v>
+        <v>0.9634382313082641</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3413,19 +3413,19 @@
         <v>12727</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7989</v>
+        <v>7791</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16793</v>
+        <v>16866</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6733122133408249</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4226529351030167</v>
+        <v>0.4121900745540986</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8884029653872405</v>
+        <v>0.8922602283319084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -3434,19 +3434,19 @@
         <v>66790</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58144</v>
+        <v>57241</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73028</v>
+        <v>72500</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8397922281949455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7310861596212633</v>
+        <v>0.7197380684999494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9182359856493929</v>
+        <v>0.9115950385170806</v>
       </c>
     </row>
     <row r="11">
@@ -3538,19 +3538,19 @@
         <v>3966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10056</v>
+        <v>8912</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03342717946741893</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008505940821291825</v>
+        <v>0.008385191603140727</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08475281922844666</v>
+        <v>0.07510603291883433</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3559,19 +3559,19 @@
         <v>7379</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3089</v>
+        <v>3166</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13620</v>
+        <v>13750</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1351094050582377</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0565572249043145</v>
+        <v>0.05797787047783438</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2493884837351965</v>
+        <v>0.251761854641371</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3580,19 +3580,19 @@
         <v>11345</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6107</v>
+        <v>6200</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19196</v>
+        <v>19191</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06547768204472851</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03524827835077554</v>
+        <v>0.03578101232916019</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1107870127454001</v>
+        <v>0.1107611715677165</v>
       </c>
     </row>
     <row r="13">
@@ -3609,19 +3609,19 @@
         <v>9707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4165</v>
+        <v>4218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20065</v>
+        <v>20557</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08181102453755515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03510113931694193</v>
+        <v>0.03555036273623024</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1691073589621446</v>
+        <v>0.1732562759015378</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -3630,19 +3630,19 @@
         <v>6249</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2112</v>
+        <v>2926</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12534</v>
+        <v>12638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1144178258199158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03866275335792959</v>
+        <v>0.05358123609008961</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2295049032260991</v>
+        <v>0.2313985451790003</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -3651,19 +3651,19 @@
         <v>15956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9108</v>
+        <v>9295</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27028</v>
+        <v>27360</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09208877330304327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05256795703861911</v>
+        <v>0.05364495654935157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.155989839439172</v>
+        <v>0.1579044560636024</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>104980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94985</v>
+        <v>93863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111431</v>
+        <v>110973</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8847617959950259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8005238883948124</v>
+        <v>0.7910755185940899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9391306074563808</v>
+        <v>0.9352707242042152</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -3701,19 +3701,19 @@
         <v>40987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33762</v>
+        <v>33300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47225</v>
+        <v>46908</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7504727691218466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6181833552300001</v>
+        <v>0.6097245131822753</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8646887103290837</v>
+        <v>0.8588820073505562</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>130</v>
@@ -3722,19 +3722,19 @@
         <v>145967</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>133886</v>
+        <v>134397</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154381</v>
+        <v>155226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8424335446522282</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7727098411285159</v>
+        <v>0.7756590513304245</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8909959295826794</v>
+        <v>0.8958712489168968</v>
       </c>
     </row>
     <row r="15">
@@ -3826,19 +3826,19 @@
         <v>22316</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14171</v>
+        <v>14006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33441</v>
+        <v>32519</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09629344069560561</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06114505499816935</v>
+        <v>0.06043326253958798</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1442957768333326</v>
+        <v>0.1403188379623334</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3847,19 +3847,19 @@
         <v>5561</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1202</v>
+        <v>2172</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10962</v>
+        <v>11671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0925374238314358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02000251818271497</v>
+        <v>0.03613785357170306</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1824163066708367</v>
+        <v>0.1942157928393502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -3868,19 +3868,19 @@
         <v>27877</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19088</v>
+        <v>18324</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40207</v>
+        <v>39880</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09552002915518361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06540350307793717</v>
+        <v>0.06278699276472502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1377656528453837</v>
+        <v>0.1366464039262283</v>
       </c>
     </row>
     <row r="17">
@@ -3897,19 +3897,19 @@
         <v>27954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18068</v>
+        <v>17813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41115</v>
+        <v>40417</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1206208922241141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07796289689736369</v>
+        <v>0.07686124335883589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1774081536738525</v>
+        <v>0.1743955193502588</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3918,19 +3918,19 @@
         <v>7996</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3900</v>
+        <v>3296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15442</v>
+        <v>14901</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1330613555215073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06490202803817792</v>
+        <v>0.054842584506727</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2569675149855677</v>
+        <v>0.2479607580675827</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -3939,19 +3939,19 @@
         <v>35951</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25597</v>
+        <v>25794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48956</v>
+        <v>51847</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.123182541500555</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08770703864035485</v>
+        <v>0.08838149794621804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.167746098755352</v>
+        <v>0.1776491810641588</v>
       </c>
     </row>
     <row r="18">
@@ -3968,19 +3968,19 @@
         <v>181482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>165700</v>
+        <v>167281</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>193907</v>
+        <v>195103</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7830856670802803</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7149836317963525</v>
+        <v>0.7218074299795565</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8366987451419208</v>
+        <v>0.8418595009846968</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -3989,19 +3989,19 @@
         <v>46538</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38607</v>
+        <v>39402</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52294</v>
+        <v>52262</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7744012206470569</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6424323876521348</v>
+        <v>0.6556627326047459</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8701970305573186</v>
+        <v>0.8696586680976044</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>216</v>
@@ -4010,19 +4010,19 @@
         <v>228020</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>211068</v>
+        <v>211468</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>241382</v>
+        <v>241312</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7812974293442614</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7232103700046468</v>
+        <v>0.7245819907781966</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8270808328421272</v>
+        <v>0.8268406319317635</v>
       </c>
     </row>
     <row r="19">
@@ -4114,19 +4114,19 @@
         <v>5222</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2076</v>
+        <v>2043</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11263</v>
+        <v>11365</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05085374086522596</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02021019873547982</v>
+        <v>0.01988978524591336</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1096717679945383</v>
+        <v>0.1106641036288646</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -4135,19 +4135,19 @@
         <v>27791</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18414</v>
+        <v>18498</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38606</v>
+        <v>38855</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1475081819445424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09774097999375334</v>
+        <v>0.09818360407171466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2049141257029702</v>
+        <v>0.2062340878545305</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -4156,19 +4156,19 @@
         <v>33013</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23215</v>
+        <v>22818</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45615</v>
+        <v>45089</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1134094772447717</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07975100620707817</v>
+        <v>0.07838712844802402</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1566993260126483</v>
+        <v>0.1548956180756709</v>
       </c>
     </row>
     <row r="21">
@@ -4185,19 +4185,19 @@
         <v>9414</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4269</v>
+        <v>4319</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15459</v>
+        <v>16315</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09166920879498017</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04157261249320746</v>
+        <v>0.04205527328813431</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1505297190816798</v>
+        <v>0.1588681029689492</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -4206,19 +4206,19 @@
         <v>34082</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24651</v>
+        <v>23908</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44761</v>
+        <v>45463</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1809033872725971</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1308462780823465</v>
+        <v>0.1269014405607174</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2375843160671879</v>
+        <v>0.241308477311596</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>41</v>
@@ -4227,19 +4227,19 @@
         <v>43496</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>32384</v>
+        <v>32786</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56343</v>
+        <v>56988</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1494224758208621</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.111247040222539</v>
+        <v>0.1126289115197157</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1935536523414972</v>
+        <v>0.1957703661597957</v>
       </c>
     </row>
     <row r="22">
@@ -4256,19 +4256,19 @@
         <v>88059</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80638</v>
+        <v>79945</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94196</v>
+        <v>94367</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8574770503397938</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.785209549432453</v>
+        <v>0.7784638274134056</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9172357132346366</v>
+        <v>0.9188965403291798</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -4277,19 +4277,19 @@
         <v>126527</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>113609</v>
+        <v>111852</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>139114</v>
+        <v>138921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6715884307828606</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6030205908012953</v>
+        <v>0.5936929396506125</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.738394375800236</v>
+        <v>0.7373746789195466</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>202</v>
@@ -4298,19 +4298,19 @@
         <v>214587</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>199505</v>
+        <v>198109</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>229653</v>
+        <v>229471</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7371680469343662</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6853595494749561</v>
+        <v>0.6805627998631819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7889244435032445</v>
+        <v>0.7882985438275611</v>
       </c>
     </row>
     <row r="23">
@@ -4415,19 +4415,19 @@
         <v>43778</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31655</v>
+        <v>32026</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57212</v>
+        <v>57137</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1109146722542221</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08019813115955812</v>
+        <v>0.08113923616552765</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1449481689003323</v>
+        <v>0.1447602355487503</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -4436,19 +4436,19 @@
         <v>43778</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32264</v>
+        <v>31397</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57425</v>
+        <v>57725</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1103589065311803</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08133383642979486</v>
+        <v>0.07914789583639377</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1447607802542517</v>
+        <v>0.1455146567034987</v>
       </c>
     </row>
     <row r="25">
@@ -4478,19 +4478,19 @@
         <v>49981</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37095</v>
+        <v>38291</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63358</v>
+        <v>65096</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1266293792179647</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09398075532103979</v>
+        <v>0.09701081077714972</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1605194337402109</v>
+        <v>0.1649247110438556</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -4499,19 +4499,19 @@
         <v>49981</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37949</v>
+        <v>38155</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64734</v>
+        <v>65935</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1259948710228893</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09566416196524276</v>
+        <v>0.0961840977486976</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1631841614637134</v>
+        <v>0.166211455519922</v>
       </c>
     </row>
     <row r="26">
@@ -4541,19 +4541,19 @@
         <v>300944</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>284014</v>
+        <v>281436</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>317646</v>
+        <v>315877</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7624559485278133</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7195622894664961</v>
+        <v>0.713031049042863</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8047701939407329</v>
+        <v>0.8002874919494479</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>285</v>
@@ -4562,19 +4562,19 @@
         <v>302932</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>283089</v>
+        <v>285723</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>318006</v>
+        <v>320123</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7636462224459304</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7136236023915992</v>
+        <v>0.7202628508939183</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8016445654587856</v>
+        <v>0.8069824273463408</v>
       </c>
     </row>
     <row r="27">
@@ -4666,19 +4666,19 @@
         <v>34853</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>24329</v>
+        <v>24805</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48927</v>
+        <v>48046</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06227807919669241</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0434731664932234</v>
+        <v>0.04432283558927154</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08742673051036244</v>
+        <v>0.08585212469473634</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>81</v>
@@ -4687,19 +4687,19 @@
         <v>88930</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>72709</v>
+        <v>70883</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109633</v>
+        <v>107633</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1198515590997215</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09798924617111016</v>
+        <v>0.09552953220370916</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1477519983693069</v>
+        <v>0.1450567276216689</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>112</v>
@@ -4708,19 +4708,19 @@
         <v>123784</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>103310</v>
+        <v>103664</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>147959</v>
+        <v>147350</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09509801608243247</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07936864955827781</v>
+        <v>0.07964116525845207</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.113670976586605</v>
+        <v>0.1132028832773289</v>
       </c>
     </row>
     <row r="29">
@@ -4737,19 +4737,19 @@
         <v>54573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41143</v>
+        <v>40717</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>70388</v>
+        <v>73218</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09751433032443246</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07351770140351449</v>
+        <v>0.0727561974816541</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1257750894463307</v>
+        <v>0.1308313555037759</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>94</v>
@@ -4758,19 +4758,19 @@
         <v>102214</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>84548</v>
+        <v>85496</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>122105</v>
+        <v>122977</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1377543367160058</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.113945499822326</v>
+        <v>0.1152234388700473</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.164561511413145</v>
+        <v>0.1657359736804729</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>140</v>
@@ -4779,19 +4779,19 @@
         <v>156787</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>134268</v>
+        <v>133194</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>181631</v>
+        <v>183839</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1204532680484961</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1031531705384978</v>
+        <v>0.1023275278075537</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1395399072711493</v>
+        <v>0.1412361212127005</v>
       </c>
     </row>
     <row r="30">
@@ -4808,19 +4808,19 @@
         <v>470211</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>449688</v>
+        <v>449916</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>487125</v>
+        <v>487638</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8402075904788752</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8035349441778581</v>
+        <v>0.8039426017139168</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.870429819246837</v>
+        <v>0.8713471998648797</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>518</v>
@@ -4829,19 +4829,19 @@
         <v>550860</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>524955</v>
+        <v>525704</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>575594</v>
+        <v>576916</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7423941041842727</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.707482019486709</v>
+        <v>0.7084915364671431</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7757277605594904</v>
+        <v>0.7775096423392713</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>945</v>
@@ -4850,19 +4850,19 @@
         <v>1021071</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>991972</v>
+        <v>989908</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1053591</v>
+        <v>1050604</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7844487158690714</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7620930346115808</v>
+        <v>0.7605074355696347</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.809432559003593</v>
+        <v>0.8071375055884117</v>
       </c>
     </row>
     <row r="31">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7595</v>
+        <v>8898</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03369926524366901</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1106372453909563</v>
+        <v>0.12962013401829</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6127</v>
+        <v>6638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03282329730341099</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.166110032176136</v>
+        <v>0.1799428381870455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5238,19 +5238,19 @@
         <v>3524</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10342</v>
+        <v>10012</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03339308355957553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007032076400686807</v>
+        <v>0.007010916049069091</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0979964970516064</v>
+        <v>0.09487091925011448</v>
       </c>
     </row>
     <row r="5">
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5593</v>
+        <v>5394</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02563310560038931</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08148040356270596</v>
+        <v>0.07857381787896758</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -5288,19 +5288,19 @@
         <v>3622</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9139</v>
+        <v>9265</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09819963981952155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02753397207681841</v>
+        <v>0.02777055365269524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2477595353103569</v>
+        <v>0.2511588369628371</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -5309,19 +5309,19 @@
         <v>5382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1908</v>
+        <v>1852</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11897</v>
+        <v>11506</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05099766820013098</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01807523075489277</v>
+        <v>0.01755306572508181</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.11272973155497</v>
+        <v>0.1090224324353878</v>
       </c>
     </row>
     <row r="6">
@@ -5338,19 +5338,19 @@
         <v>64574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59438</v>
+        <v>59103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67804</v>
+        <v>67732</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9406676291559417</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8658537751900973</v>
+        <v>0.8609680261768172</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9877143360238632</v>
+        <v>0.9866695785356421</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -5359,19 +5359,19 @@
         <v>32055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26107</v>
+        <v>25839</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35681</v>
+        <v>35610</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8689770628770674</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7077375752675341</v>
+        <v>0.7004695917123046</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9672677657476576</v>
+        <v>0.9653475540415551</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>88</v>
@@ -5380,19 +5380,19 @@
         <v>96629</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>88579</v>
+        <v>88939</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101385</v>
+        <v>101511</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9156092482402935</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8393317962131109</v>
+        <v>0.8427487893092364</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9606790735513762</v>
+        <v>0.9618724980916069</v>
       </c>
     </row>
     <row r="7">
@@ -5484,19 +5484,19 @@
         <v>6371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2734</v>
+        <v>2767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11731</v>
+        <v>11837</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1194383713143087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05125746652171726</v>
+        <v>0.05186917926674251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2199105692109099</v>
+        <v>0.2219019877356455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5518,19 +5518,19 @@
         <v>6371</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2611</v>
+        <v>2757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11865</v>
+        <v>12247</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08982270131390729</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03681672537078717</v>
+        <v>0.03887233402112526</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1672771658396651</v>
+        <v>0.1726562302058009</v>
       </c>
     </row>
     <row r="9">
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5405</v>
+        <v>5306</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03172647714564649</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1013298111930475</v>
+        <v>0.09946100882705687</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -5568,19 +5568,19 @@
         <v>4914</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1282</v>
+        <v>1295</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9829</v>
+        <v>9634</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2793725349785752</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07288649358231347</v>
+        <v>0.0736298579501151</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5588727074557083</v>
+        <v>0.5477560008456066</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -5589,19 +5589,19 @@
         <v>6606</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2513</v>
+        <v>3000</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13245</v>
+        <v>13164</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09313223682718112</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03542756886587889</v>
+        <v>0.04228739425051418</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1867258500528277</v>
+        <v>0.1855850641707408</v>
       </c>
     </row>
     <row r="10">
@@ -5618,19 +5618,19 @@
         <v>45280</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39534</v>
+        <v>39175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49323</v>
+        <v>49126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8488351515400449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7411089812943209</v>
+        <v>0.7343755002259369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9246158052840246</v>
+        <v>0.920926882585446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5639,19 +5639,19 @@
         <v>12674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7759</v>
+        <v>7954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16306</v>
+        <v>16293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7206274650214247</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4411272925442923</v>
+        <v>0.4522439991543936</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9271135064176865</v>
+        <v>0.926370142049885</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -5660,19 +5660,19 @@
         <v>57955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50726</v>
+        <v>51003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63421</v>
+        <v>63244</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8170450618589116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7151341058933504</v>
+        <v>0.7190409459722557</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8941122768645111</v>
+        <v>0.8916133592676314</v>
       </c>
     </row>
     <row r="11">
@@ -5764,19 +5764,19 @@
         <v>5383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2101</v>
+        <v>2441</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11807</v>
+        <v>11391</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0447640430186118</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01747162159993606</v>
+        <v>0.02029590133152182</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09817701133105426</v>
+        <v>0.09471909466924294</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7752</v>
+        <v>6719</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02890344844279069</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1677619643326369</v>
+        <v>0.145399126396762</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -5806,19 +5806,19 @@
         <v>6719</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2884</v>
+        <v>2558</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13678</v>
+        <v>12667</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04036144603956229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0173215495407681</v>
+        <v>0.01536490648895388</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08216726151684123</v>
+        <v>0.07609060857115305</v>
       </c>
     </row>
     <row r="13">
@@ -5835,19 +5835,19 @@
         <v>7047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12753</v>
+        <v>12575</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05859491278883902</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02627040418100888</v>
+        <v>0.02627835785349893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1060473384341157</v>
+        <v>0.1045612596354803</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -5856,19 +5856,19 @@
         <v>10090</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4522</v>
+        <v>4563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17745</v>
+        <v>17421</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2183600388555632</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09785950731673189</v>
+        <v>0.0987495697838815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3840211627044148</v>
+        <v>0.3770030024847619</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -5877,19 +5877,19 @@
         <v>17137</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10359</v>
+        <v>10801</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27885</v>
+        <v>26481</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1029426488094736</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06222806854822843</v>
+        <v>0.0648797187351626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1675047700546085</v>
+        <v>0.159072586291666</v>
       </c>
     </row>
     <row r="14">
@@ -5906,19 +5906,19 @@
         <v>107831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100735</v>
+        <v>100369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113481</v>
+        <v>113085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8966410441925492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8376404780461342</v>
+        <v>0.8345899738219293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9436209378379005</v>
+        <v>0.9403295229618788</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -5927,19 +5927,19 @@
         <v>34783</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27195</v>
+        <v>27163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40590</v>
+        <v>40498</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7527365127016461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5885170505036169</v>
+        <v>0.5878369058767805</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.878394144676287</v>
+        <v>0.8764171713820815</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -5948,19 +5948,19 @@
         <v>142614</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131644</v>
+        <v>132535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>150922</v>
+        <v>149957</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8566959051509641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7907941828247769</v>
+        <v>0.7961504232527634</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9065988491568423</v>
+        <v>0.9008067468671724</v>
       </c>
     </row>
     <row r="15">
@@ -6052,19 +6052,19 @@
         <v>6882</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3163</v>
+        <v>3397</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13028</v>
+        <v>13507</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0337578457083914</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01551792200300599</v>
+        <v>0.01666145757873591</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06390945225850123</v>
+        <v>0.06625964863732095</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6073,19 +6073,19 @@
         <v>7742</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3369</v>
+        <v>3536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16141</v>
+        <v>15416</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07816677466389373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03401546221679552</v>
+        <v>0.03570404439123539</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1629679083069346</v>
+        <v>0.1556486735449345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -6094,19 +6094,19 @@
         <v>14624</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8142</v>
+        <v>7717</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23546</v>
+        <v>23572</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04827914300868878</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02687913397894528</v>
+        <v>0.02547837598762329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07773424677882525</v>
+        <v>0.07782080894524476</v>
       </c>
     </row>
     <row r="17">
@@ -6123,19 +6123,19 @@
         <v>22745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15210</v>
+        <v>15376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31638</v>
+        <v>32397</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1115750547001877</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07461102196252194</v>
+        <v>0.07542560378375546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1551953830021902</v>
+        <v>0.158921089167895</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -6144,19 +6144,19 @@
         <v>11841</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5603</v>
+        <v>6020</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20506</v>
+        <v>20407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.119550404119653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05656745262604655</v>
+        <v>0.06077781236779962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2070365024297323</v>
+        <v>0.2060399425018109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -6165,19 +6165,19 @@
         <v>34586</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24764</v>
+        <v>24384</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46775</v>
+        <v>45785</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1141829180897744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08175699648218838</v>
+        <v>0.08050256200816487</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1544229611068794</v>
+        <v>0.1511548971821936</v>
       </c>
     </row>
     <row r="18">
@@ -6194,19 +6194,19 @@
         <v>174229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>164901</v>
+        <v>163628</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183411</v>
+        <v>182764</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8546670995914208</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.808908893269817</v>
+        <v>0.8026647392362559</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8997082469002554</v>
+        <v>0.8965348161549686</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -6215,19 +6215,19 @@
         <v>79463</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>70350</v>
+        <v>69025</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>87159</v>
+        <v>87702</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8022828212164532</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7102777633155306</v>
+        <v>0.6969024599360026</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8799808050078102</v>
+        <v>0.885472162392051</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>253</v>
@@ -6236,19 +6236,19 @@
         <v>253692</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>239516</v>
+        <v>241713</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>265498</v>
+        <v>266246</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8375379389015368</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7907377108315289</v>
+        <v>0.7979898514031403</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8765150534158803</v>
+        <v>0.8789824685833544</v>
       </c>
     </row>
     <row r="19">
@@ -6340,19 +6340,19 @@
         <v>11310</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6050</v>
+        <v>6014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18934</v>
+        <v>18885</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07788426877913228</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04165994081785801</v>
+        <v>0.04141380803065642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1303803226645563</v>
+        <v>0.1300406711328806</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -6361,19 +6361,19 @@
         <v>11480</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6111</v>
+        <v>5266</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20927</v>
+        <v>19632</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0719528978545047</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03830335575837924</v>
+        <v>0.03300768371333736</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1311642210952371</v>
+        <v>0.1230432052833619</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -6382,19 +6382,19 @@
         <v>22791</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14675</v>
+        <v>14983</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35012</v>
+        <v>33654</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07477914514354758</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04815095825684886</v>
+        <v>0.04916223221799935</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1148812291906226</v>
+        <v>0.1104229903226656</v>
       </c>
     </row>
     <row r="21">
@@ -6411,19 +6411,19 @@
         <v>17234</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11089</v>
+        <v>10244</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27171</v>
+        <v>26027</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1186763626195555</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07636261709618285</v>
+        <v>0.07054108327758021</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1871011682718447</v>
+        <v>0.1792238888913983</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -6432,19 +6432,19 @@
         <v>30762</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20479</v>
+        <v>21254</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42929</v>
+        <v>43841</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1928053160515106</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1283572122488552</v>
+        <v>0.1332118934530504</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2690626278737275</v>
+        <v>0.2747797661202957</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>45</v>
@@ -6453,19 +6453,19 @@
         <v>47996</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>35009</v>
+        <v>35060</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60776</v>
+        <v>61311</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1574835065847044</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1148682635373124</v>
+        <v>0.1150386689445348</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1994156981640045</v>
+        <v>0.2011720767983504</v>
       </c>
     </row>
     <row r="22">
@@ -6482,19 +6482,19 @@
         <v>116676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106784</v>
+        <v>106458</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>125060</v>
+        <v>125183</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8034393686013123</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7353218688237179</v>
+        <v>0.7330748681549968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8611698041306109</v>
+        <v>0.8620195544665302</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -6503,19 +6503,19 @@
         <v>117308</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>105487</v>
+        <v>105011</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129383</v>
+        <v>128647</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7352417860939847</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6611509483749036</v>
+        <v>0.6581672261920781</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8109245462934672</v>
+        <v>0.8063139879601545</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>232</v>
@@ -6524,19 +6524,19 @@
         <v>233984</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>218702</v>
+        <v>219307</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>248729</v>
+        <v>249721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.767737348271748</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7175944080655819</v>
+        <v>0.719580881446918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8161164180725881</v>
+        <v>0.8193735263933227</v>
       </c>
     </row>
     <row r="23">
@@ -6637,19 +6637,19 @@
         <v>33682</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22385</v>
+        <v>21762</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46664</v>
+        <v>48160</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08153721253067432</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05419113161747219</v>
+        <v>0.05268245971849415</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1129645509087957</v>
+        <v>0.1165874699013883</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -6658,19 +6658,19 @@
         <v>33682</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>22385</v>
+        <v>21762</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46664</v>
+        <v>48160</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08153721253067432</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05419113161747219</v>
+        <v>0.05268245971849415</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1129645509087957</v>
+        <v>0.1165874699013883</v>
       </c>
     </row>
     <row r="25">
@@ -6696,19 +6696,19 @@
         <v>70646</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54109</v>
+        <v>54861</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87366</v>
+        <v>90378</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1710203200699904</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1309876455025517</v>
+        <v>0.1328080264982108</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2114977949707463</v>
+        <v>0.2187889414840226</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -6717,19 +6717,19 @@
         <v>70646</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54109</v>
+        <v>54861</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>87366</v>
+        <v>90378</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1710203200699904</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1309876455025517</v>
+        <v>0.1328080264982108</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2114977949707463</v>
+        <v>0.2187889414840226</v>
       </c>
     </row>
     <row r="26">
@@ -6755,19 +6755,19 @@
         <v>308756</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>290720</v>
+        <v>287835</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>328199</v>
+        <v>328284</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7474424673993353</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7037811387407596</v>
+        <v>0.6967968659048601</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.794510584313278</v>
+        <v>0.7947164779286661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>264</v>
@@ -6776,19 +6776,19 @@
         <v>308756</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>290720</v>
+        <v>287835</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>328199</v>
+        <v>328284</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7474424673993353</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7037811387407596</v>
+        <v>0.6967968659048601</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.794510584313278</v>
+        <v>0.7947164779286661</v>
       </c>
     </row>
     <row r="27">
@@ -6868,19 +6868,19 @@
         <v>32260</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22719</v>
+        <v>22705</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44770</v>
+        <v>44076</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05455542492048411</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03841946899603207</v>
+        <v>0.03839651981404961</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07571147070956769</v>
+        <v>0.0745368441144748</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -6889,19 +6889,19 @@
         <v>55450</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40346</v>
+        <v>39520</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74947</v>
+        <v>71990</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0717928314167002</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0522375987668774</v>
+        <v>0.05116756347458667</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09703536974472042</v>
+        <v>0.09320700925757218</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>78</v>
@@ -6910,19 +6910,19 @@
         <v>87710</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68589</v>
+        <v>70311</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>108564</v>
+        <v>108035</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06431829806520108</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05029663944045494</v>
+        <v>0.05155905477216868</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07961011535394463</v>
+        <v>0.07922226089509982</v>
       </c>
     </row>
     <row r="29">
@@ -6939,19 +6939,19 @@
         <v>50478</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38892</v>
+        <v>37802</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>62378</v>
+        <v>63121</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08536412006329425</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06577108377846161</v>
+        <v>0.06392744277015769</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1054885921274278</v>
+        <v>0.1067445749666216</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>107</v>
@@ -6960,19 +6960,19 @@
         <v>131875</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>109629</v>
+        <v>108658</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>156377</v>
+        <v>154278</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1707418445416815</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1419389133595896</v>
+        <v>0.1406820890891285</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2024659369710857</v>
+        <v>0.1997484243676728</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>164</v>
@@ -6981,19 +6981,19 @@
         <v>182353</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>154290</v>
+        <v>157309</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>209112</v>
+        <v>208866</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1337201122277806</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1131415765579104</v>
+        <v>0.1153550137883487</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1533425961150466</v>
+        <v>0.1531620577240703</v>
       </c>
     </row>
     <row r="30">
@@ -7010,19 +7010,19 @@
         <v>508590</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>492841</v>
+        <v>492349</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>524650</v>
+        <v>523682</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8600804550162217</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8334477489397327</v>
+        <v>0.8326159561442354</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8872399086711945</v>
+        <v>0.8856028143615609</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>500</v>
@@ -7031,19 +7031,19 @@
         <v>585039</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>556403</v>
+        <v>559743</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>611756</v>
+        <v>611960</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7574653240416183</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.720389618274378</v>
+        <v>0.7247138071792397</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7920562892900366</v>
+        <v>0.7923205565776039</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1035</v>
@@ -7052,19 +7052,19 @@
         <v>1093629</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1064486</v>
+        <v>1064968</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1124106</v>
+        <v>1122250</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8019615897070184</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7805908940558867</v>
+        <v>0.7809446310033326</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8243108155452737</v>
+        <v>0.8229496048328176</v>
       </c>
     </row>
     <row r="31">
@@ -7398,19 +7398,19 @@
         <v>3642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1460</v>
+        <v>1526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7158</v>
+        <v>7293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03024934034971795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0121291588498465</v>
+        <v>0.01267248743904857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05945066145750543</v>
+        <v>0.06056874552567033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3005</v>
+        <v>3431</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008059130546249215</v>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04030147608610025</v>
+        <v>0.04601258216014801</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -7440,19 +7440,19 @@
         <v>4243</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1854</v>
+        <v>2048</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8066</v>
+        <v>8182</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02176308983793334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009508663272529977</v>
+        <v>0.01050514008563044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04137269325747283</v>
+        <v>0.0419682657413403</v>
       </c>
     </row>
     <row r="5">
@@ -7469,19 +7469,19 @@
         <v>2270</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6449</v>
+        <v>6409</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01885519014165327</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005367975962220614</v>
+        <v>0.005443363135521395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05356237451138592</v>
+        <v>0.05323004728279378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -7490,19 +7490,19 @@
         <v>5296</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2500</v>
+        <v>2646</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9400</v>
+        <v>9577</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07102627214491751</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03352400235489117</v>
+        <v>0.03548283034111806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1260691499458291</v>
+        <v>0.1284495893196427</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -7511,19 +7511,19 @@
         <v>7566</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4188</v>
+        <v>4011</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13008</v>
+        <v>12357</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03880709124000838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02148179810567387</v>
+        <v>0.02057581328696425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06672342942937051</v>
+        <v>0.06338331617597819</v>
       </c>
     </row>
     <row r="6">
@@ -7540,19 +7540,19 @@
         <v>114489</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>110005</v>
+        <v>109591</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117446</v>
+        <v>117326</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9508954695086288</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9136523359365065</v>
+        <v>0.9102150467273336</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9754533809243233</v>
+        <v>0.9744562739698113</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>122</v>
@@ -7561,19 +7561,19 @@
         <v>68662</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64446</v>
+        <v>64384</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>71594</v>
+        <v>71381</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9209145973088334</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8643577776963461</v>
+        <v>0.863529734546911</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9602286738869308</v>
+        <v>0.9573778209639358</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>283</v>
@@ -7582,19 +7582,19 @@
         <v>183151</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>177208</v>
+        <v>177040</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>187504</v>
+        <v>187397</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9394298189220583</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.908944725517864</v>
+        <v>0.908085447708872</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9617539899581243</v>
+        <v>0.9612064551665774</v>
       </c>
     </row>
     <row r="7">
@@ -7686,19 +7686,19 @@
         <v>1764</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4747</v>
+        <v>4845</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01684374014796043</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005335130210386486</v>
+        <v>0.005243657105089131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04532944949273861</v>
+        <v>0.04626421279083547</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -7707,19 +7707,19 @@
         <v>2265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5169</v>
+        <v>5390</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04088734369930086</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01066626767381393</v>
+        <v>0.01110414158848387</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09332577748163305</v>
+        <v>0.09731648659906589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -7728,19 +7728,19 @@
         <v>4028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1737</v>
+        <v>1754</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7870</v>
+        <v>8312</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02516135366248671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01084813289731255</v>
+        <v>0.01095489672673102</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04915406716683185</v>
+        <v>0.05191755932657448</v>
       </c>
     </row>
     <row r="9">
@@ -7757,19 +7757,19 @@
         <v>7180</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3662</v>
+        <v>3622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12218</v>
+        <v>12489</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06857001012431628</v>
+        <v>0.06857001012431627</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03496698996486881</v>
+        <v>0.03458943956941885</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1166807069792528</v>
+        <v>0.1192666346768953</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -7778,19 +7778,19 @@
         <v>7414</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4113</v>
+        <v>4099</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11943</v>
+        <v>11514</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1338686405553533</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07426879019348541</v>
+        <v>0.07401705558906227</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2156401401707801</v>
+        <v>0.207885775275597</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -7799,19 +7799,19 @@
         <v>14595</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9400</v>
+        <v>9445</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21019</v>
+        <v>20787</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09115933496464251</v>
+        <v>0.09115933496464253</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05871564622973371</v>
+        <v>0.05899308326175386</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1312890519467672</v>
+        <v>0.1298348884620123</v>
       </c>
     </row>
     <row r="10">
@@ -7828,19 +7828,19 @@
         <v>95771</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90678</v>
+        <v>89301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99740</v>
+        <v>99569</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9145862497277234</v>
+        <v>0.9145862497277232</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8659462235758919</v>
+        <v>0.8528010712893686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9524888153967261</v>
+        <v>0.9508594763790329</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -7849,19 +7849,19 @@
         <v>45706</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40024</v>
+        <v>41255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49282</v>
+        <v>49397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8252440157453458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7226523162418417</v>
+        <v>0.7448808868993934</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8898099746338376</v>
+        <v>0.8918809891401158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -7870,19 +7870,19 @@
         <v>141477</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134536</v>
+        <v>134658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147514</v>
+        <v>146739</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8836793113728706</v>
+        <v>0.8836793113728707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.840323363636192</v>
+        <v>0.8410895517035119</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9213868702723118</v>
+        <v>0.9165450619266995</v>
       </c>
     </row>
     <row r="11">
@@ -7974,19 +7974,19 @@
         <v>6371</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3240</v>
+        <v>3362</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11041</v>
+        <v>11478</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05664624039872294</v>
+        <v>0.05664624039872295</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02880428946684663</v>
+        <v>0.0298936261580146</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09816357428954672</v>
+        <v>0.10204970719186</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -7995,19 +7995,19 @@
         <v>5950</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3144</v>
+        <v>3312</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10493</v>
+        <v>10516</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.102645658697746</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05422931706368587</v>
+        <v>0.05713148749829929</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.181011969972768</v>
+        <v>0.1813968811334237</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -8016,19 +8016,19 @@
         <v>12321</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7721</v>
+        <v>8198</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18128</v>
+        <v>19105</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0722915134952571</v>
+        <v>0.07229151349525707</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04530036579009444</v>
+        <v>0.04809825830439025</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1063606426346747</v>
+        <v>0.1120917821600734</v>
       </c>
     </row>
     <row r="13">
@@ -8045,19 +8045,19 @@
         <v>7878</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4085</v>
+        <v>4095</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12879</v>
+        <v>13290</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07004619797335708</v>
+        <v>0.07004619797335709</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03631907929673071</v>
+        <v>0.03640576156573003</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1145069780450265</v>
+        <v>0.118162863916315</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -8066,19 +8066,19 @@
         <v>14409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9436</v>
+        <v>9509</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20508</v>
+        <v>20572</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2485662188415513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1627746040624706</v>
+        <v>0.1640350570628241</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3537762974799689</v>
+        <v>0.3548705996710762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -8087,19 +8087,19 @@
         <v>22288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16221</v>
+        <v>15963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30343</v>
+        <v>30123</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.130764237091282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09516965288765331</v>
+        <v>0.09365506527264482</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1780265499945049</v>
+        <v>0.176735345360269</v>
       </c>
     </row>
     <row r="14">
@@ -8116,19 +8116,19 @@
         <v>98222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91675</v>
+        <v>90823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102967</v>
+        <v>103064</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8733075616279198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8150978923909432</v>
+        <v>0.8075197115895362</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9154985125169135</v>
+        <v>0.9163590416053412</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>70</v>
@@ -8137,19 +8137,19 @@
         <v>37610</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31621</v>
+        <v>31103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42706</v>
+        <v>42832</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6487881224607029</v>
+        <v>0.6487881224607028</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5454701690600026</v>
+        <v>0.5365436791478598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7366880523760361</v>
+        <v>0.738863695270805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>211</v>
@@ -8158,19 +8158,19 @@
         <v>135832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126895</v>
+        <v>127801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>143514</v>
+        <v>143515</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.796944249413461</v>
+        <v>0.7969442494134609</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7445116968094604</v>
+        <v>0.7498241395060785</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8420184194034128</v>
+        <v>0.8420200172524676</v>
       </c>
     </row>
     <row r="15">
@@ -8262,19 +8262,19 @@
         <v>20480</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14339</v>
+        <v>14141</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28621</v>
+        <v>28101</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07907226535115991</v>
+        <v>0.07907226535115992</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05536180242666584</v>
+        <v>0.05459954128651948</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1105041080139197</v>
+        <v>0.108497786674051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -8283,19 +8283,19 @@
         <v>11844</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7833</v>
+        <v>7916</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17070</v>
+        <v>17284</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09049740181634151</v>
+        <v>0.0904974018163415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05984519697150524</v>
+        <v>0.06048339183876817</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1304276766593914</v>
+        <v>0.132060057196391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -8304,19 +8304,19 @@
         <v>32324</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24367</v>
+        <v>24436</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42603</v>
+        <v>41902</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08290758685131253</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06249979985215692</v>
+        <v>0.0626767442995623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1092725032508127</v>
+        <v>0.1074737638181751</v>
       </c>
     </row>
     <row r="17">
@@ -8333,19 +8333,19 @@
         <v>32557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24051</v>
+        <v>23864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41650</v>
+        <v>41652</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1257010954811047</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09285907927432666</v>
+        <v>0.09213748652034401</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1608106869638482</v>
+        <v>0.1608180592672245</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -8354,19 +8354,19 @@
         <v>18292</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13000</v>
+        <v>12870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24305</v>
+        <v>24881</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1397592133132565</v>
+        <v>0.1397592133132564</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09932438707832596</v>
+        <v>0.098335003888506</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1857059461090315</v>
+        <v>0.1901065674864525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -8375,19 +8375,19 @@
         <v>50848</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40370</v>
+        <v>41881</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61762</v>
+        <v>62463</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.130420286515509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1035452277439382</v>
+        <v>0.1074200368298568</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1584115264921216</v>
+        <v>0.1602094905480743</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>205964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>194115</v>
+        <v>193740</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>216068</v>
+        <v>216339</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7952266391677355</v>
+        <v>0.7952266391677356</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7494757665269929</v>
+        <v>0.7480281136389766</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8342358558440628</v>
+        <v>0.8352824786261491</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>200</v>
@@ -8425,19 +8425,19 @@
         <v>100744</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>93281</v>
+        <v>93187</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>106759</v>
+        <v>107242</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7697433848704021</v>
+        <v>0.7697433848704019</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7127184966416281</v>
+        <v>0.712000130406568</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8156986512208352</v>
+        <v>0.8193891445148045</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>491</v>
@@ -8446,19 +8446,19 @@
         <v>306709</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>294276</v>
+        <v>292902</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>319803</v>
+        <v>318647</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7866721266331785</v>
+        <v>0.7866721266331786</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7547850190734557</v>
+        <v>0.7512592658932067</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8202587605718901</v>
+        <v>0.8172923079143083</v>
       </c>
     </row>
     <row r="19">
@@ -8550,19 +8550,19 @@
         <v>8145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4613</v>
+        <v>4791</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13124</v>
+        <v>12925</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08081012702823996</v>
+        <v>0.08081012702823999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04576526286086949</v>
+        <v>0.04753149304787246</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.130211831547604</v>
+        <v>0.1282311659064098</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -8571,19 +8571,19 @@
         <v>38097</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30132</v>
+        <v>31216</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46514</v>
+        <v>47112</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1734310293535867</v>
+        <v>0.1734310293535866</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1371730753431314</v>
+        <v>0.1421073417726779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2117498452585706</v>
+        <v>0.2144743275021405</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -8592,19 +8592,19 @@
         <v>46242</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38331</v>
+        <v>37312</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55391</v>
+        <v>55654</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1442990067213839</v>
+        <v>0.144299006721384</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1196120797665789</v>
+        <v>0.116434673424552</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1728505385277443</v>
+        <v>0.1736686403520055</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>10618</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6391</v>
+        <v>6213</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16161</v>
+        <v>16197</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.105341790606461</v>
+        <v>0.1053417906064611</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06341151120631565</v>
+        <v>0.06164582769756321</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1603392394812523</v>
+        <v>0.160697423864137</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>100</v>
@@ -8642,19 +8642,19 @@
         <v>51367</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>42614</v>
+        <v>43033</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>60439</v>
+        <v>60815</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2338433640049373</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1939945169055903</v>
+        <v>0.1959050603485977</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2751433281314061</v>
+        <v>0.2768556380113044</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>118</v>
@@ -8663,19 +8663,19 @@
         <v>61985</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>52238</v>
+        <v>52558</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>73031</v>
+        <v>72539</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1934258054351843</v>
+        <v>0.1934258054351844</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1630111703942531</v>
+        <v>0.1640098711559788</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2278946060086729</v>
+        <v>0.2263607228589664</v>
       </c>
     </row>
     <row r="22">
@@ -8692,19 +8692,19 @@
         <v>82030</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>75432</v>
+        <v>75766</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87645</v>
+        <v>87774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8138480823652989</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7483851991444572</v>
+        <v>0.7517018861452864</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8695579476737525</v>
+        <v>0.8708350545637372</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -8713,19 +8713,19 @@
         <v>130200</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>119825</v>
+        <v>118885</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>139544</v>
+        <v>139958</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5927256066414759</v>
+        <v>0.592725606641476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5454935009951664</v>
+        <v>0.5412110523498452</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6352591843339011</v>
+        <v>0.6371449242532822</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>374</v>
@@ -8734,19 +8734,19 @@
         <v>212231</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>199605</v>
+        <v>199614</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223842</v>
+        <v>224118</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6622751878434316</v>
+        <v>0.6622751878434318</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6228726683429697</v>
+        <v>0.6229023263324563</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6985049563641832</v>
+        <v>0.6993690123399626</v>
       </c>
     </row>
     <row r="23">
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2187</v>
+        <v>1810</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1580662387414968</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.667446234804704</v>
+        <v>0.5526236564934454</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>80</v>
@@ -8859,19 +8859,19 @@
         <v>45231</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35630</v>
+        <v>36233</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54879</v>
+        <v>56317</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.131495275580348</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1035850880883636</v>
+        <v>0.1053377249936026</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1595458666003927</v>
+        <v>0.1637273359891596</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -8880,19 +8880,19 @@
         <v>45748</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37453</v>
+        <v>36831</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56158</v>
+        <v>56627</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1317459637786617</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1078563523260957</v>
+        <v>0.1060646232780053</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1617225434633929</v>
+        <v>0.163074842109632</v>
       </c>
     </row>
     <row r="25">
@@ -8909,19 +8909,19 @@
         <v>1686</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2811</v>
+        <v>2803</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5146793704114756</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1600923508218562</v>
+        <v>0.1587601685923981</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8581369621250575</v>
+        <v>0.8557303531288863</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>119</v>
@@ -8930,19 +8930,19 @@
         <v>67604</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56929</v>
+        <v>55680</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79332</v>
+        <v>79414</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1965383942779895</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1655051148111903</v>
+        <v>0.1618743299057127</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2306349917806536</v>
+        <v>0.2308742337923689</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -8951,19 +8951,19 @@
         <v>69290</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>58651</v>
+        <v>58942</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82206</v>
+        <v>82028</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1995399485548507</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1689030217654989</v>
+        <v>0.1697417183393908</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2367358921275485</v>
+        <v>0.2362245668514541</v>
       </c>
     </row>
     <row r="26">
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>434</v>
@@ -9001,19 +9001,19 @@
         <v>231137</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>218605</v>
+        <v>216705</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>243499</v>
+        <v>245377</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6719663301416625</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6355339321672714</v>
+        <v>0.6300083878470701</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.70790426336464</v>
+        <v>0.7133642233364176</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>436</v>
@@ -9022,19 +9022,19 @@
         <v>232209</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>218928</v>
+        <v>218527</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>245709</v>
+        <v>244943</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6687140876664875</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6304686190777842</v>
+        <v>0.6293122648374977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7075909689436853</v>
+        <v>0.705384259613233</v>
       </c>
     </row>
     <row r="27">
@@ -9126,19 +9126,19 @@
         <v>40920</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31650</v>
+        <v>31653</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52344</v>
+        <v>51003</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05840181092806356</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04517174418900072</v>
+        <v>0.04517642585043317</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0747066740078441</v>
+        <v>0.0727927047340856</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>201</v>
@@ -9147,19 +9147,19 @@
         <v>103987</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>90444</v>
+        <v>89580</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>119946</v>
+        <v>119588</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1178420286508011</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1024938399991574</v>
+        <v>0.1015157924154103</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1359265350164239</v>
+        <v>0.1355208413728594</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>271</v>
@@ -9168,19 +9168,19 @@
         <v>144907</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>127944</v>
+        <v>128310</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>162294</v>
+        <v>162297</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09153438762579864</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08081900182208283</v>
+        <v>0.08105031654294037</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1025175141431858</v>
+        <v>0.1025194349134394</v>
       </c>
     </row>
     <row r="29">
@@ -9197,19 +9197,19 @@
         <v>62189</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>50111</v>
+        <v>51245</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>74070</v>
+        <v>75927</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.08875848527431651</v>
+        <v>0.0887584852743165</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0715202390048497</v>
+        <v>0.07313895200553297</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1057152318772413</v>
+        <v>0.1083653717724058</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>302</v>
@@ -9218,19 +9218,19 @@
         <v>164382</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>149231</v>
+        <v>147251</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>183401</v>
+        <v>182873</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1862830332343609</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1691138887126335</v>
+        <v>0.1668697238025152</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2078368054526319</v>
+        <v>0.2072385364152396</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>396</v>
@@ -9239,19 +9239,19 @@
         <v>226571</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>205937</v>
+        <v>205850</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>248190</v>
+        <v>249718</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1431196516527848</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1300856079036776</v>
+        <v>0.1300307125181965</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1567758573567061</v>
+        <v>0.1577411042905973</v>
       </c>
     </row>
     <row r="30">
@@ -9268,19 +9268,19 @@
         <v>597550</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>580933</v>
+        <v>580789</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>612311</v>
+        <v>611258</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8528397037976201</v>
+        <v>0.85283970379762</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8291233593428997</v>
+        <v>0.8289176877134926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8739073679202832</v>
+        <v>0.8724038554370798</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1167</v>
@@ -9289,19 +9289,19 @@
         <v>614060</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>592747</v>
+        <v>591327</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>633497</v>
+        <v>632630</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.695874938114838</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6717224699971377</v>
+        <v>0.6701125562443185</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7179010755996023</v>
+        <v>0.7169184540224361</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2009</v>
@@ -9310,19 +9310,19 @@
         <v>1211609</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1186580</v>
+        <v>1182523</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1237068</v>
+        <v>1237203</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7653459607214166</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7495353753461143</v>
+        <v>0.7469725477087064</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.781427994141194</v>
+        <v>0.7815126685124619</v>
       </c>
     </row>
     <row r="31">
